--- a/Data/EC/NIT-9008592507.xlsx
+++ b/Data/EC/NIT-9008592507.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3826823-3F30-4ADC-9C3C-AB2C2F887E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CF2892-1ED2-493D-8698-29487162E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E1FBC26-2D5B-43F5-A086-1F13DB419F64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A9EE1F6-E4E5-487D-ABB8-F81E1A6152A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,184 +71,184 @@
     <t>MARIA CAROLINA TORDECILLA ESPAÑA</t>
   </si>
   <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>3829661</t>
+  </si>
+  <si>
+    <t>JOSE GABRIEL GOMEZ BANQUEZ</t>
+  </si>
+  <si>
     <t>1610</t>
   </si>
   <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>3829661</t>
-  </si>
-  <si>
-    <t>JOSE GABRIEL GOMEZ BANQUEZ</t>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
   </si>
   <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -347,9 +347,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -367,156 +517,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -562,23 +562,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,10 +606,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +662,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25AA5E7-1ACE-B6BD-CB83-B0FDA8EB9BFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4563E4C-9215-D79A-6F72-D42A0362011C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45998D5F-5CB4-4AD3-B79E-D9CFDF8C7B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF0497-C40B-4845-A955-7581A0EB6434}">
   <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1251,19 +1251,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18">
-        <v>31800</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>795000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1274,19 +1274,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>27083</v>
+        <v>31800</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>795000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1297,19 +1297,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1320,19 +1320,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1343,19 +1343,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1366,19 +1366,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1389,19 +1389,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1412,19 +1412,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1435,19 +1435,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1458,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1481,19 +1481,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1504,19 +1504,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1527,19 +1527,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1550,19 +1550,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1573,19 +1573,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1596,19 +1596,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1619,19 +1619,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1642,19 +1642,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1665,19 +1665,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1688,19 +1688,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1711,19 +1711,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1734,19 +1734,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1757,19 +1757,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1780,19 +1780,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1803,19 +1803,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1826,19 +1826,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1849,19 +1849,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1872,19 +1872,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1895,19 +1895,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1918,19 +1918,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1941,19 +1941,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1964,19 +1964,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1987,19 +1987,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2010,19 +2010,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2033,19 +2033,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2056,19 +2056,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2079,19 +2079,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2102,19 +2102,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2125,19 +2125,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2148,19 +2148,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2171,19 +2171,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2194,19 +2194,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2217,19 +2217,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2240,19 +2240,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2263,19 +2263,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2286,19 +2286,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2309,19 +2309,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2332,19 +2332,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2355,19 +2355,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2378,19 +2378,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2401,19 +2401,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2424,19 +2424,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2447,19 +2447,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2470,19 +2470,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2493,19 +2493,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2516,19 +2516,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2539,19 +2539,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F75" s="24">
-        <v>27578</v>
+        <v>27083</v>
       </c>
       <c r="G75" s="24">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
